--- a/Data_frame/balancos_definitivos/ZAMP3.xlsx
+++ b/Data_frame/balancos_definitivos/ZAMP3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC80"/>
+  <dimension ref="A1:AF80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,21 @@
           <t>30/09/2023</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -670,6 +685,15 @@
       <c r="AC2" t="n">
         <v>3980999.936</v>
       </c>
+      <c r="AD2" t="n">
+        <v>4117466.112</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>4590901.76</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4331321.856</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -761,6 +785,15 @@
       <c r="AC3" t="n">
         <v>835574.0159999999</v>
       </c>
+      <c r="AD3" t="n">
+        <v>902076.992</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1430381.056</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1194092.032</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -852,6 +885,15 @@
       <c r="AC4" t="n">
         <v>17340</v>
       </c>
+      <c r="AD4" t="n">
+        <v>81279</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>73419</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>31843</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -943,6 +985,15 @@
       <c r="AC5" t="n">
         <v>376404.992</v>
       </c>
+      <c r="AD5" t="n">
+        <v>355300</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>894598.976</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>656443.008</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1034,6 +1085,15 @@
       <c r="AC6" t="n">
         <v>183234</v>
       </c>
+      <c r="AD6" t="n">
+        <v>213712</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>226792</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>233656</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1125,6 +1185,15 @@
       <c r="AC7" t="n">
         <v>152214</v>
       </c>
+      <c r="AD7" t="n">
+        <v>161098</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>147696.992</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>169488.992</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1216,6 +1285,15 @@
       <c r="AC8" t="n">
         <v>0</v>
       </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1307,6 +1385,15 @@
       <c r="AC9" t="n">
         <v>65382</v>
       </c>
+      <c r="AD9" t="n">
+        <v>52941</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>53986</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>63830</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1398,6 +1485,15 @@
       <c r="AC10" t="n">
         <v>0</v>
       </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1489,6 +1585,15 @@
       <c r="AC11" t="n">
         <v>40999</v>
       </c>
+      <c r="AD11" t="n">
+        <v>37747</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>33888</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>38831</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1580,6 +1685,15 @@
       <c r="AC12" t="n">
         <v>220138</v>
       </c>
+      <c r="AD12" t="n">
+        <v>282476.992</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>279982.016</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>292544</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1671,6 +1785,15 @@
       <c r="AC13" t="n">
         <v>0</v>
       </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1053</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>480</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1762,6 +1885,15 @@
       <c r="AC14" t="n">
         <v>0</v>
       </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1853,6 +1985,15 @@
       <c r="AC15" t="n">
         <v>0</v>
       </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1944,6 +2085,15 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2035,6 +2185,15 @@
       <c r="AC17" t="n">
         <v>0</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2126,6 +2285,15 @@
       <c r="AC18" t="n">
         <v>0</v>
       </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2217,6 +2385,15 @@
       <c r="AC19" t="n">
         <v>0</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2308,6 +2485,15 @@
       <c r="AC20" t="n">
         <v>0</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2399,6 +2585,15 @@
       <c r="AC21" t="n">
         <v>0</v>
       </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2490,6 +2685,15 @@
       <c r="AC22" t="n">
         <v>0</v>
       </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2581,6 +2785,15 @@
       <c r="AC23" t="n">
         <v>1363031.04</v>
       </c>
+      <c r="AD23" t="n">
+        <v>1378694.016</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1378985.984</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1352973.952</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2672,6 +2885,15 @@
       <c r="AC24" t="n">
         <v>1562257.024</v>
       </c>
+      <c r="AD24" t="n">
+        <v>1554217.984</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1501553.024</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1491712</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2763,6 +2985,15 @@
       <c r="AC25" t="n">
         <v>0</v>
       </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2854,6 +3085,15 @@
       <c r="AC26" t="n">
         <v>3980999.936</v>
       </c>
+      <c r="AD26" t="n">
+        <v>4117466.112</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>4590901.76</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>4331321.856</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2945,6 +3185,15 @@
       <c r="AC27" t="n">
         <v>808971.008</v>
       </c>
+      <c r="AD27" t="n">
+        <v>1306667.008</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1247815.04</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1162528</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3036,6 +3285,15 @@
       <c r="AC28" t="n">
         <v>141248.992</v>
       </c>
+      <c r="AD28" t="n">
+        <v>121685</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>139320</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>152536</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3127,6 +3385,15 @@
       <c r="AC29" t="n">
         <v>259880.992</v>
       </c>
+      <c r="AD29" t="n">
+        <v>357539.008</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>274508.992</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>300300.992</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3218,6 +3485,15 @@
       <c r="AC30" t="n">
         <v>29265</v>
       </c>
+      <c r="AD30" t="n">
+        <v>30685</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>26937</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>32242</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3309,6 +3585,15 @@
       <c r="AC31" t="n">
         <v>164678</v>
       </c>
+      <c r="AD31" t="n">
+        <v>543353.024</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>575190.0159999999</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>454436.992</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3400,6 +3685,15 @@
       <c r="AC32" t="n">
         <v>0</v>
       </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3491,6 +3785,15 @@
       <c r="AC33" t="n">
         <v>0</v>
       </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3582,6 +3885,15 @@
       <c r="AC34" t="n">
         <v>213898</v>
       </c>
+      <c r="AD34" t="n">
+        <v>253404.992</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>231859.008</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>223012</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3673,6 +3985,15 @@
       <c r="AC35" t="n">
         <v>0</v>
       </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3764,6 +4085,15 @@
       <c r="AC36" t="n">
         <v>0</v>
       </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3855,6 +4185,15 @@
       <c r="AC37" t="n">
         <v>1840558.976</v>
       </c>
+      <c r="AD37" t="n">
+        <v>1417118.976</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>2032646.016</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1917885.056</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3946,6 +4285,15 @@
       <c r="AC38" t="n">
         <v>987963.008</v>
       </c>
+      <c r="AD38" t="n">
+        <v>573460.992</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1216188.032</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1114950.016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4037,6 +4385,15 @@
       <c r="AC39" t="n">
         <v>0</v>
       </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4128,6 +4485,15 @@
       <c r="AC40" t="n">
         <v>761260.032</v>
       </c>
+      <c r="AD40" t="n">
+        <v>743681.024</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>703104</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>680793.9840000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4219,6 +4585,15 @@
       <c r="AC41" t="n">
         <v>69084</v>
       </c>
+      <c r="AD41" t="n">
+        <v>55953</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>70500</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>80372</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4310,6 +4685,15 @@
       <c r="AC42" t="n">
         <v>0</v>
       </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4401,6 +4785,15 @@
       <c r="AC43" t="n">
         <v>22252</v>
       </c>
+      <c r="AD43" t="n">
+        <v>44024</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>42854</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>41769</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4492,6 +4885,15 @@
       <c r="AC44" t="n">
         <v>0</v>
       </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4583,6 +4985,15 @@
       <c r="AC45" t="n">
         <v>0</v>
       </c>
+      <c r="AD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4674,6 +5085,15 @@
       <c r="AC46" t="n">
         <v>0</v>
       </c>
+      <c r="AD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4765,6 +5185,15 @@
       <c r="AC47" t="n">
         <v>1331469.952</v>
       </c>
+      <c r="AD47" t="n">
+        <v>1393680</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1310440.96</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1250909.056</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4856,6 +5285,15 @@
       <c r="AC48" t="n">
         <v>1461068.032</v>
       </c>
+      <c r="AD48" t="n">
+        <v>1461068.032</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1461068.032</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1461068.032</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4947,6 +5385,15 @@
       <c r="AC49" t="n">
         <v>668188.032</v>
       </c>
+      <c r="AD49" t="n">
+        <v>671046.976</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>687057.9840000001</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>687057.9840000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5038,6 +5485,15 @@
       <c r="AC50" t="n">
         <v>0</v>
       </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5129,6 +5585,15 @@
       <c r="AC51" t="n">
         <v>0</v>
       </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5220,6 +5685,15 @@
       <c r="AC52" t="n">
         <v>-797731.008</v>
       </c>
+      <c r="AD52" t="n">
+        <v>-738419.008</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-829187.968</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-856691.008</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5311,6 +5785,15 @@
       <c r="AC53" t="n">
         <v>0</v>
       </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5402,6 +5885,15 @@
       <c r="AC54" t="n">
         <v>0</v>
       </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5493,6 +5985,15 @@
       <c r="AC55" t="n">
         <v>-55</v>
       </c>
+      <c r="AD55" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-8497</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-40526</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5582,6 +6083,15 @@
         <v>0</v>
       </c>
       <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5619,6 +6129,9 @@
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5654,6 +6167,9 @@
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
       <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5743,6 +6259,15 @@
       <c r="AC59" t="n">
         <v>948016</v>
       </c>
+      <c r="AD59" t="n">
+        <v>1074050.944</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1028624</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1108247.04</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5832,6 +6357,15 @@
       <c r="AC60" t="n">
         <v>-326387.008</v>
       </c>
+      <c r="AD60" t="n">
+        <v>-317320.96</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-369641.984</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-387671.008</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5921,6 +6455,15 @@
       <c r="AC61" t="n">
         <v>621628.992</v>
       </c>
+      <c r="AD61" t="n">
+        <v>756729.9840000001</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>658982.0159999999</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>720576</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6010,6 +6553,15 @@
       <c r="AC62" t="n">
         <v>-559734.0159999999</v>
       </c>
+      <c r="AD62" t="n">
+        <v>-609381.952</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-592814.976</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-629606.0159999999</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6099,6 +6651,15 @@
       <c r="AC63" t="n">
         <v>-51344</v>
       </c>
+      <c r="AD63" t="n">
+        <v>-61531</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-99709</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-63307</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6188,6 +6749,15 @@
       <c r="AC64" t="n">
         <v>0</v>
       </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6277,6 +6847,15 @@
       <c r="AC65" t="n">
         <v>0</v>
       </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6366,6 +6945,15 @@
       <c r="AC66" t="n">
         <v>0</v>
       </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6455,6 +7043,15 @@
       <c r="AC67" t="n">
         <v>0</v>
       </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6544,6 +7141,15 @@
       <c r="AC68" t="n">
         <v>-46749</v>
       </c>
+      <c r="AD68" t="n">
+        <v>-39636.008</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>-42681</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>-45294</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6633,6 +7239,15 @@
       <c r="AC69" t="n">
         <v>14776</v>
       </c>
+      <c r="AD69" t="n">
+        <v>10703</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>15314</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>16912</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6721,6 +7336,15 @@
       </c>
       <c r="AC70" t="n">
         <v>-61525</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>-50339</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>-57995</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>-62206</v>
       </c>
     </row>
     <row r="71">
@@ -6757,6 +7381,9 @@
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6792,6 +7419,9 @@
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6827,6 +7457,9 @@
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6916,6 +7549,15 @@
       <c r="AC74" t="n">
         <v>-36198</v>
       </c>
+      <c r="AD74" t="n">
+        <v>46181</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>-76223</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>-17631</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7005,6 +7647,15 @@
       <c r="AC75" t="n">
         <v>0</v>
       </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7093,6 +7744,15 @@
       </c>
       <c r="AC76" t="n">
         <v>-2275</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>13131</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>-14546</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>-9872</v>
       </c>
     </row>
     <row r="77">
@@ -7129,6 +7789,9 @@
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7164,6 +7827,9 @@
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7253,6 +7919,15 @@
       <c r="AC79" t="n">
         <v>0</v>
       </c>
+      <c r="AD79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7341,6 +8016,15 @@
       </c>
       <c r="AC80" t="n">
         <v>-38473</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>59312</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>-90769</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>-27503</v>
       </c>
     </row>
   </sheetData>
